--- a/medicine/Psychotrope/Maison_noble_de_Rochefort/Maison_noble_de_Rochefort.xlsx
+++ b/medicine/Psychotrope/Maison_noble_de_Rochefort/Maison_noble_de_Rochefort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison noble de Rochefort, ou château de Rochefort, est un château situé à La Haie-Fouassière, en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison noble de Rochefort, ou château de Rochefort, est un château situé à La Haie-Fouassière, en France.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château est situé sur la commune de La Haie-Fouassière, dans le département de la Loire-Atlantique.
 </t>
@@ -568,10 +584,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le château est construit par Charles de Goyon-Rochefort[2] en 1764 sur les plans de l'architecte Jean-Baptiste Ceineray[3],[4].
-Plusieurs éléments de la maison et du domaine sont inscrits au titre des monuments historiques par arrêté du 29 juin 2018[1], à savoir :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le château est construit par Charles de Goyon-Rochefort en 1764 sur les plans de l'architecte Jean-Baptiste Ceineray,.
+Plusieurs éléments de la maison et du domaine sont inscrits au titre des monuments historiques par arrêté du 29 juin 2018, à savoir :
 les parcelles composant le domaine ;
 le mur de clôture nord ;
 l'assiette, les perspectives et les façades et toitures de la maison noble, et, à l'intérieur :
